--- a/medicine/Enfance/Valérie_Zenatti/Valérie_Zenatti.xlsx
+++ b/medicine/Enfance/Valérie_Zenatti/Valérie_Zenatti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Val%C3%A9rie_Zenatti</t>
+          <t>Valérie_Zenatti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Valérie Zenatti, née le 1er avril 1970 à Nice, est une écrivaine, traductrice et scénariste française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Val%C3%A9rie_Zenatti</t>
+          <t>Valérie_Zenatti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +523,22 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Valérie Zenatti passe son enfance à Nice avant de vivre huit ans en Israël, expérience qui marque en partie son travail.
-De retour en France, après des études d'histoire et de langue (hébreu) à l'INALCO et une agrégation d'hébreu, elle devient journaliste radio dans les années 1990 (couvrant entre autres la guerre en Yougoslavie) puis professeure d'hébreu jusqu'en 2004, année à partir de laquelle elle se consacre exclusivement à l'écriture sous différentes formes[2]. L'enfance comme source et mystère, la guerre comme cadre où l'individu lutte pour conserver sa singularité, les échos et les traces de l'histoire intime ou collective sont les thématiques au cœur de son œuvre.
+De retour en France, après des études d'histoire et de langue (hébreu) à l'INALCO et une agrégation d'hébreu, elle devient journaliste radio dans les années 1990 (couvrant entre autres la guerre en Yougoslavie) puis professeure d'hébreu jusqu'en 2004, année à partir de laquelle elle se consacre exclusivement à l'écriture sous différentes formes. L'enfance comme source et mystère, la guerre comme cadre où l'individu lutte pour conserver sa singularité, les échos et les traces de l'histoire intime ou collective sont les thématiques au cœur de son œuvre.
 Valérie Zenatti est l'auteure de plusieurs romans – dont certains pour la jeunesse parus aux éditions L'École des loisirs – pour lesquels elle a reçu plusieurs distinctions. En 2004, The Times lui consacre une double page et compare son roman pour adolescent, Quand j'étais soldate, à L'Attrape-cœurs de Salinger. Son livre pour adolescents Une bouteille dans la mer de Gaza, paru en 2005, lui vaut une renommée mondiale, une vingtaine de prix et est traduit dans une quinzaine de langues. Il est adapté par elle-même et le réalisateur Thierry Binisti pour le cinéma sous le titre Une bouteille à la mer (2012).
 En 2013, elle est chargée de cours à Sciences-Po où elle enseigne l'écriture du roman avec l'exil pour thématique.
 Son premier roman à L'Olivier, En retard pour la guerre a été adapté au cinéma par Alain Tasma sous le titre Ultimatum (2009) avec Gaspard Ulliel et Jasmine Trinca dans les rôles principaux.
-Son quatrième roman, Jacob, Jacob, est retenu dans les sélections finales du prix Médicis et du prix des libraires et reçoit le prix du Livre Inter en juin 2015[3],[4] et plusieurs autres prix dont le prix Méditerranée, le prix Libraires en Seine, le prix littéraire Gabrielle-d'Estrées[5] et le prix Azur.
-Depuis 2004, elle est la traductrice d'Aharon Appelfeld (mort en janvier 2018) en français et a traduit plus d'une dizaine de ses livres[6]. Leur relation littéraire et amicale extrêmement forte a fait l'objet d'un documentaire, Le Kaddish des orphelins réalisé par Arno Sauli[7].
-En 2017, elle co-signe le scénario du premier long métrage de Rachid Hami, La Mélodie, en sélection officielle à la Mostra de Venise hors compétition[8].
-En octobre 2018 elle est nommée par le Premier ministre Édouard Philippe présidente de la commission Littératures étrangères du Centre national du livre (CNL)[9].
+Son quatrième roman, Jacob, Jacob, est retenu dans les sélections finales du prix Médicis et du prix des libraires et reçoit le prix du Livre Inter en juin 2015, et plusieurs autres prix dont le prix Méditerranée, le prix Libraires en Seine, le prix littéraire Gabrielle-d'Estrées et le prix Azur.
+Depuis 2004, elle est la traductrice d'Aharon Appelfeld (mort en janvier 2018) en français et a traduit plus d'une dizaine de ses livres. Leur relation littéraire et amicale extrêmement forte a fait l'objet d'un documentaire, Le Kaddish des orphelins réalisé par Arno Sauli.
+En 2017, elle co-signe le scénario du premier long métrage de Rachid Hami, La Mélodie, en sélection officielle à la Mostra de Venise hors compétition.
+En octobre 2018 elle est nommée par le Premier ministre Édouard Philippe présidente de la commission Littératures étrangères du Centre national du livre (CNL).
 Elle écrit une série pour Canal+ en collaboration avec le show runner israélien Shachar Magen (he) (Sirènes).
-Le 3 janvier 2019 paraît Dans le faisceau des vivants aux éditions de l'Olivier[10], essai qui traite de sa relation avec Appelfeld[11]. Deux mois plus tard, le livre reçoit le prix France Télévisions, catégorie essai.
-En 2020, elle fait partie du jury de l’association Clap Citizen Cannes créée en mai 2017 lors du 70e anniversaire du festival international du film de Cannes[12].
+Le 3 janvier 2019 paraît Dans le faisceau des vivants aux éditions de l'Olivier, essai qui traite de sa relation avec Appelfeld. Deux mois plus tard, le livre reçoit le prix France Télévisions, catégorie essai.
+En 2020, elle fait partie du jury de l’association Clap Citizen Cannes créée en mai 2017 lors du 70e anniversaire du festival international du film de Cannes.
 </t>
         </is>
       </c>
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Val%C3%A9rie_Zenatti</t>
+          <t>Valérie_Zenatti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,8 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages jeunesse
-1999 : Une addition, des complications, École des loisirs, coll. « Neuf »
+          <t>Ouvrages jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1999 : Une addition, des complications, École des loisirs, coll. « Neuf »
 1999 : Une montre pour grandir, illustrations Frédéric Richard, École des loisirs, coll. « Mouche »
 2000 : Koloïshmielnik s’en va-t-en guerre, École des loisirs, coll. « Neuf »
 2001 : Fais pas le clown, Papa !, illustrations de Kimiko, École des loisirs, coll. « Mouche »
@@ -569,19 +588,121 @@
 2007 : Adieu, mes 9 ans !, École des loisirs, coll. « Neuf »
 2008 : « Une balle perdue », nouvelle dans le recueil collectif Il va y avoir du sport mais moi je reste tranquille, École des loisirs
 2009 : Vérité, vérité chérie, illustrations Audrey Poussier, École des loisirs, coll. « Mouche »
-2020 : Marilou et le grand incendie, illustrations Colette Natrella, Ecole des loisirs, coll. « Mouche »  (ISBN 9782211310550)
-Romans
-2006 : En retard pour la guerre, éditions de l'Olivier ; Points Seuil sous le titre Ultimatum
+2020 : Marilou et le grand incendie, illustrations Colette Natrella, Ecole des loisirs, coll. « Mouche »  (ISBN 9782211310550)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Valérie_Zenatti</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Val%C3%A9rie_Zenatti</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2006 : En retard pour la guerre, éditions de l'Olivier ; Points Seuil sous le titre Ultimatum
 2010 : Les Âmes sœurs, éditions de l'Olivier ; Points Seuil, 2011
 2010 : Le Blues de Kippour avec Serge Lask, éd. Naïve
 2011 : Mensonges, éditions de l'Olivier
 2012 : Mariage blanc, éditions de l'Olivier
 2014 : Jacob, Jacob, éditions de l'Olivier ; Points Seuil, 2016 – Prix Méditerranée 2015 et prix du livre Inter
-2024 : Qui-vive, éditions de l'Olivier
-Essai
-2019 : Dans le faisceau des vivants, éditions de l'Olivier — Prix France Télévisions, catégorie essai 2019[2]
-Traductions
-Traductions de l'hébreu au français.
+2024 : Qui-vive, éditions de l'Olivier</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Valérie_Zenatti</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Val%C3%A9rie_Zenatti</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2019 : Dans le faisceau des vivants, éditions de l'Olivier — Prix France Télévisions, catégorie essai 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Valérie_Zenatti</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Val%C3%A9rie_Zenatti</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Traductions de l'hébreu au français.
 2004 : Histoire d'une vie d'Aharon Appelfeld
 2006 : L'Amour, soudain d'Aharon Appelfeld
 2007 : Double Jeu de Yaïr Lapid
@@ -596,45 +717,122 @@
 2014 : Adam et Thomas d'Aharon Appelfeld (l'école des loisirs)
 2015 : Les partisans d'Aharon Appelfeld
 2016 : De longues nuits d'été d'Aharon Appelfeld
-2018 : Des jours d'une stupéfiante clarté d'Aharon Appelfeld
-Autres
-Participations
-Cent jours sans (collectif) en soutien à Florence Aubenas et Hussein Hanoun
+2018 : Des jours d'une stupéfiante clarté d'Aharon Appelfeld</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Valérie_Zenatti</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Val%C3%A9rie_Zenatti</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Participations</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cent jours sans (collectif) en soutien à Florence Aubenas et Hussein Hanoun
 N° 605 de la NRF L'Enfance de la littérature sous la direction de Philippe Forest et Stéphane Audeguy
 Qu'est-ce que la gauche ? (collectif), Fayard, 2017.
 Bienvenus (collectif), profits reversés au bénéfice du HCR
-L'Aventure, le choix d'une vie, (collectif), coll. « Points Seuil »
-Préfaces
-Passager de la nuit de Maurice Pons (rééd. Points Seuil, 2017)
+L'Aventure, le choix d'une vie, (collectif), coll. « Points Seuil »</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Valérie_Zenatti</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Val%C3%A9rie_Zenatti</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Préfaces</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Passager de la nuit de Maurice Pons (rééd. Points Seuil, 2017)
 Croquis de voyages de Joseph Roth (rééd. Points Seuil, 2016)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Val%C3%A9rie_Zenatti</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Valérie_Zenatti</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Val%C3%A9rie_Zenatti</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Une bouteille dans la mer de Gaza
 Une bouteille à la mer, film de Thierry Binisti sorti en 2012 en France, avec Agathe Bonitzer, Hiam Abbass et Mahmoud Shalaby
